--- a/src/com/NFHS/xls/Suite.xlsx
+++ b/src/com/NFHS/xls/Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2490" windowWidth="10395" windowHeight="7200"/>
+    <workbookView xWindow="0" yWindow="2490" windowWidth="13395" windowHeight="4215"/>
   </bookViews>
   <sheets>
     <sheet name="Test Suite" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Description</t>
   </si>
@@ -34,13 +34,19 @@
     <t>Registration suite description</t>
   </si>
   <si>
-    <t>Catalogue suite description</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>Login suite description</t>
+  </si>
+  <si>
+    <t>Forgot Password suite description</t>
   </si>
 </sst>
 </file>
@@ -386,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,18 +424,29 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/com/NFHS/xls/Suite.xlsx
+++ b/src/com/NFHS/xls/Suite.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Description</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Forgot Password suite description</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,7 +427,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/com/NFHS/xls/Suite.xlsx
+++ b/src/com/NFHS/xls/Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2490" windowWidth="13395" windowHeight="4215"/>
+    <workbookView xWindow="0" yWindow="2490" windowWidth="14610" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Test Suite" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:D22"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Description</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>Complete Course</t>
+  </si>
+  <si>
+    <t>Complete course description</t>
   </si>
 </sst>
 </file>
@@ -395,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +444,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -450,6 +456,17 @@
       </c>
       <c r="C4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/com/NFHS/xls/Suite.xlsx
+++ b/src/com/NFHS/xls/Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2490" windowWidth="14610" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="2490" windowWidth="13395" windowHeight="4215"/>
   </bookViews>
   <sheets>
     <sheet name="Test Suite" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Description</t>
   </si>
@@ -37,9 +36,6 @@
     <t>Login</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>Forgot Password</t>
   </si>
   <si>
@@ -56,6 +52,15 @@
   </si>
   <si>
     <t>Complete course description</t>
+  </si>
+  <si>
+    <t>MC Distribution</t>
+  </si>
+  <si>
+    <t>My Courses distribution description</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -401,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -441,32 +446,43 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
